--- a/Pos_data_stat/position/xuebao-120-all.xlsx
+++ b/Pos_data_stat/position/xuebao-120-all.xlsx
@@ -457,10 +457,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2613</v>
+        <v>2612</v>
       </c>
       <c r="B2" t="n">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="C2" t="n">
         <v>113</v>
